--- a/Documents/Finance/Financial Report 2 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 2 Submission/Business plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220"/>
+    <workbookView xWindow="15140" yWindow="0" windowWidth="18100" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,6 +695,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -1032,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2327,6 +2328,7 @@
         <f>Timesheets!M8</f>
         <v>1612.5</v>
       </c>
+      <c r="V10" s="114"/>
       <c r="W10" s="6" t="s">
         <v>49</v>
       </c>
@@ -2391,6 +2393,7 @@
         <f>Timesheets!M9</f>
         <v>1890.25</v>
       </c>
+      <c r="V11" s="114"/>
       <c r="W11" s="101" t="s">
         <v>50</v>
       </c>
@@ -2455,6 +2458,7 @@
         <f>Timesheets!M10</f>
         <v>1525</v>
       </c>
+      <c r="V12" s="114"/>
       <c r="W12" s="101" t="s">
         <v>51</v>
       </c>
